--- a/result/Amazon/all/amazon_md结果统计.xlsx
+++ b/result/Amazon/all/amazon_md结果统计.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21601"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{951F9A62-E4F5-483B-AEF0-9692251D8836}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{546E86FB-91B2-4225-88ED-6494C5DB25C8}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2530,16 +2530,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>285750</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>476250</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>214312</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>404812</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2830,15 +2830,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J21"/>
+  <dimension ref="A1:AN50"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:J21"/>
+      <selection activeCell="C30" sqref="C30:W30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A1" s="1">
         <v>-1</v>
       </c>
@@ -2870,7 +2870,7 @@
         <v>7.6073729145366198E-2</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>-0.9</v>
       </c>
@@ -2902,7 +2902,7 @@
         <v>7.7206666049935105E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>-0.8</v>
       </c>
@@ -2934,7 +2934,7 @@
         <v>7.8342393807214E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>-0.7</v>
       </c>
@@ -2966,7 +2966,7 @@
         <v>7.9469413930569596E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>-0.6</v>
       </c>
@@ -2998,7 +2998,7 @@
         <v>8.0570566649091804E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>-0.5</v>
       </c>
@@ -3029,8 +3029,71 @@
       <c r="J6" s="1">
         <v>8.1614815359756898E-2</v>
       </c>
+      <c r="T6" s="1">
+        <v>4.0378860278279097E-2</v>
+      </c>
+      <c r="U6" s="1">
+        <v>4.2132668687199899E-2</v>
+      </c>
+      <c r="V6" s="1">
+        <v>4.3961704452390199E-2</v>
+      </c>
+      <c r="W6" s="1">
+        <v>4.58611971876038E-2</v>
+      </c>
+      <c r="X6" s="1">
+        <v>4.7832330618094797E-2</v>
+      </c>
+      <c r="Y6" s="1">
+        <v>4.9889523428374598E-2</v>
+      </c>
+      <c r="Z6" s="1">
+        <v>5.2073090247695401E-2</v>
+      </c>
+      <c r="AA6" s="1">
+        <v>5.4466906119278603E-2</v>
+      </c>
+      <c r="AB6" s="1">
+        <v>5.7166222052488502E-2</v>
+      </c>
+      <c r="AC6" s="1">
+        <v>5.92691001413648E-2</v>
+      </c>
+      <c r="AD6" s="1">
+        <v>4.0676959678748098E-2</v>
+      </c>
+      <c r="AE6" s="1">
+        <v>-1.7705443773836999E-2</v>
+      </c>
+      <c r="AF6" s="1">
+        <v>-3.6622199846936702E-2</v>
+      </c>
+      <c r="AG6" s="1">
+        <v>-4.2768128737566399E-2</v>
+      </c>
+      <c r="AH6" s="1">
+        <v>-4.5386778710089497E-2</v>
+      </c>
+      <c r="AI6" s="1">
+        <v>-4.6497799702381402E-2</v>
+      </c>
+      <c r="AJ6" s="1">
+        <v>-4.6739563089322901E-2</v>
+      </c>
+      <c r="AK6" s="1">
+        <v>-4.6380186884066803E-2</v>
+      </c>
+      <c r="AL6" s="1">
+        <v>-4.5567134168963699E-2</v>
+      </c>
+      <c r="AM6" s="1">
+        <v>-4.4406611763665602E-2</v>
+      </c>
+      <c r="AN6" s="1">
+        <v>-4.2991021231211499E-2</v>
+      </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>-0.4</v>
       </c>
@@ -3061,8 +3124,71 @@
       <c r="J7" s="1">
         <v>8.2532268119502497E-2</v>
       </c>
+      <c r="T7" s="1">
+        <v>4.0378860278279097E-2</v>
+      </c>
+      <c r="U7" s="1">
+        <v>4.2132668687199899E-2</v>
+      </c>
+      <c r="V7" s="1">
+        <v>4.3961704452390199E-2</v>
+      </c>
+      <c r="W7" s="1">
+        <v>4.58611971876038E-2</v>
+      </c>
+      <c r="X7" s="1">
+        <v>4.7832330618094797E-2</v>
+      </c>
+      <c r="Y7" s="1">
+        <v>4.9889523428374598E-2</v>
+      </c>
+      <c r="Z7" s="1">
+        <v>5.2073090247695401E-2</v>
+      </c>
+      <c r="AA7" s="1">
+        <v>5.4466906119278603E-2</v>
+      </c>
+      <c r="AB7" s="1">
+        <v>5.7166222052488502E-2</v>
+      </c>
+      <c r="AC7" s="1">
+        <v>5.92691001413648E-2</v>
+      </c>
+      <c r="AD7" s="1">
+        <v>4.0676959678748098E-2</v>
+      </c>
+      <c r="AE7" s="1">
+        <v>-1.7705443773836999E-2</v>
+      </c>
+      <c r="AF7" s="1">
+        <v>-3.6622199846936702E-2</v>
+      </c>
+      <c r="AG7" s="1">
+        <v>-4.2768128737566399E-2</v>
+      </c>
+      <c r="AH7" s="1">
+        <v>-4.5386778710089497E-2</v>
+      </c>
+      <c r="AI7" s="1">
+        <v>-4.6497799702381402E-2</v>
+      </c>
+      <c r="AJ7" s="1">
+        <v>-4.6739563089322901E-2</v>
+      </c>
+      <c r="AK7" s="1">
+        <v>-4.6380186884066803E-2</v>
+      </c>
+      <c r="AL7" s="1">
+        <v>-4.5567134168963699E-2</v>
+      </c>
+      <c r="AM7" s="1">
+        <v>-4.4406611763665602E-2</v>
+      </c>
+      <c r="AN7" s="1">
+        <v>-4.2991021231211499E-2</v>
+      </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>-0.3</v>
       </c>
@@ -3093,8 +3219,71 @@
       <c r="J8" s="1">
         <v>8.3124033234950406E-2</v>
       </c>
+      <c r="T8" s="1">
+        <v>4.0378860278279097E-2</v>
+      </c>
+      <c r="U8" s="1">
+        <v>4.2132668687199899E-2</v>
+      </c>
+      <c r="V8" s="1">
+        <v>4.3961704452390199E-2</v>
+      </c>
+      <c r="W8" s="1">
+        <v>4.58611971876038E-2</v>
+      </c>
+      <c r="X8" s="1">
+        <v>4.7832330618094797E-2</v>
+      </c>
+      <c r="Y8" s="1">
+        <v>4.9889523428374598E-2</v>
+      </c>
+      <c r="Z8" s="1">
+        <v>5.2073090247695401E-2</v>
+      </c>
+      <c r="AA8" s="1">
+        <v>5.4466906119278603E-2</v>
+      </c>
+      <c r="AB8" s="1">
+        <v>5.7166222052488502E-2</v>
+      </c>
+      <c r="AC8" s="1">
+        <v>5.92691001413648E-2</v>
+      </c>
+      <c r="AD8" s="1">
+        <v>4.0676959678748098E-2</v>
+      </c>
+      <c r="AE8" s="1">
+        <v>-1.7705443773836999E-2</v>
+      </c>
+      <c r="AF8" s="1">
+        <v>-3.6622199846936702E-2</v>
+      </c>
+      <c r="AG8" s="1">
+        <v>-4.2768128737566399E-2</v>
+      </c>
+      <c r="AH8" s="1">
+        <v>-4.5386778710089497E-2</v>
+      </c>
+      <c r="AI8" s="1">
+        <v>-4.6497799702381402E-2</v>
+      </c>
+      <c r="AJ8" s="1">
+        <v>-4.6739563089322901E-2</v>
+      </c>
+      <c r="AK8" s="1">
+        <v>-4.6380186884066803E-2</v>
+      </c>
+      <c r="AL8" s="1">
+        <v>-4.5567134168963699E-2</v>
+      </c>
+      <c r="AM8" s="1">
+        <v>-4.4406611763665602E-2</v>
+      </c>
+      <c r="AN8" s="1">
+        <v>-4.2991021231211499E-2</v>
+      </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>-0.2</v>
       </c>
@@ -3125,8 +3314,71 @@
       <c r="J9" s="1">
         <v>8.2638215226897904E-2</v>
       </c>
+      <c r="T9" s="1">
+        <v>4.0378860278279097E-2</v>
+      </c>
+      <c r="U9" s="1">
+        <v>4.2132668687199899E-2</v>
+      </c>
+      <c r="V9" s="1">
+        <v>4.3961704452390199E-2</v>
+      </c>
+      <c r="W9" s="1">
+        <v>4.58611971876038E-2</v>
+      </c>
+      <c r="X9" s="1">
+        <v>4.7832330618094797E-2</v>
+      </c>
+      <c r="Y9" s="1">
+        <v>4.9889523428374598E-2</v>
+      </c>
+      <c r="Z9" s="1">
+        <v>5.2073090247695401E-2</v>
+      </c>
+      <c r="AA9" s="1">
+        <v>5.4466906119278603E-2</v>
+      </c>
+      <c r="AB9" s="1">
+        <v>5.7166222052488502E-2</v>
+      </c>
+      <c r="AC9" s="1">
+        <v>5.92691001413648E-2</v>
+      </c>
+      <c r="AD9" s="1">
+        <v>4.0676959678748098E-2</v>
+      </c>
+      <c r="AE9" s="1">
+        <v>-1.7705443773836999E-2</v>
+      </c>
+      <c r="AF9" s="1">
+        <v>-3.6622199846936702E-2</v>
+      </c>
+      <c r="AG9" s="1">
+        <v>-4.2768128737566399E-2</v>
+      </c>
+      <c r="AH9" s="1">
+        <v>-4.5386778710089497E-2</v>
+      </c>
+      <c r="AI9" s="1">
+        <v>-4.6497799702381402E-2</v>
+      </c>
+      <c r="AJ9" s="1">
+        <v>-4.6739563089322901E-2</v>
+      </c>
+      <c r="AK9" s="1">
+        <v>-4.6380186884066803E-2</v>
+      </c>
+      <c r="AL9" s="1">
+        <v>-4.5567134168963699E-2</v>
+      </c>
+      <c r="AM9" s="1">
+        <v>-4.4406611763665602E-2</v>
+      </c>
+      <c r="AN9" s="1">
+        <v>-4.2991021231211499E-2</v>
+      </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>-0.1</v>
       </c>
@@ -3157,8 +3409,71 @@
       <c r="J10" s="1">
         <v>7.6717870726333001E-2</v>
       </c>
+      <c r="T10" s="1">
+        <v>4.0378860278279097E-2</v>
+      </c>
+      <c r="U10" s="1">
+        <v>4.2132668687199899E-2</v>
+      </c>
+      <c r="V10" s="1">
+        <v>4.3961704452390199E-2</v>
+      </c>
+      <c r="W10" s="1">
+        <v>4.58611971876038E-2</v>
+      </c>
+      <c r="X10" s="1">
+        <v>4.7832330618094797E-2</v>
+      </c>
+      <c r="Y10" s="1">
+        <v>4.9889523428374598E-2</v>
+      </c>
+      <c r="Z10" s="1">
+        <v>5.2073090247695401E-2</v>
+      </c>
+      <c r="AA10" s="1">
+        <v>5.4466906119278603E-2</v>
+      </c>
+      <c r="AB10" s="1">
+        <v>5.7166222052488502E-2</v>
+      </c>
+      <c r="AC10" s="1">
+        <v>5.92691001413648E-2</v>
+      </c>
+      <c r="AD10" s="1">
+        <v>4.0676959678748098E-2</v>
+      </c>
+      <c r="AE10" s="1">
+        <v>-1.7705443773836999E-2</v>
+      </c>
+      <c r="AF10" s="1">
+        <v>-3.6622199846936702E-2</v>
+      </c>
+      <c r="AG10" s="1">
+        <v>-4.2768128737566399E-2</v>
+      </c>
+      <c r="AH10" s="1">
+        <v>-4.5386778710089497E-2</v>
+      </c>
+      <c r="AI10" s="1">
+        <v>-4.6497799702381402E-2</v>
+      </c>
+      <c r="AJ10" s="1">
+        <v>-4.6739563089322901E-2</v>
+      </c>
+      <c r="AK10" s="1">
+        <v>-4.6380186884066803E-2</v>
+      </c>
+      <c r="AL10" s="1">
+        <v>-4.5567134168963699E-2</v>
+      </c>
+      <c r="AM10" s="1">
+        <v>-4.4406611763665602E-2</v>
+      </c>
+      <c r="AN10" s="1">
+        <v>-4.2991021231211499E-2</v>
+      </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A11" s="2">
         <v>-1.38777878078144E-16</v>
       </c>
@@ -3189,8 +3504,71 @@
       <c r="J11" s="1">
         <v>2.6236453268825E-2</v>
       </c>
+      <c r="T11" s="1">
+        <v>4.0378860278279097E-2</v>
+      </c>
+      <c r="U11" s="1">
+        <v>4.2132668687199899E-2</v>
+      </c>
+      <c r="V11" s="1">
+        <v>4.3961704452390199E-2</v>
+      </c>
+      <c r="W11" s="1">
+        <v>4.58611971876038E-2</v>
+      </c>
+      <c r="X11" s="1">
+        <v>4.7832330618094797E-2</v>
+      </c>
+      <c r="Y11" s="1">
+        <v>4.9889523428374598E-2</v>
+      </c>
+      <c r="Z11" s="1">
+        <v>5.2073090247695401E-2</v>
+      </c>
+      <c r="AA11" s="1">
+        <v>5.4466906119278603E-2</v>
+      </c>
+      <c r="AB11" s="1">
+        <v>5.7166222052488502E-2</v>
+      </c>
+      <c r="AC11" s="1">
+        <v>5.92691001413648E-2</v>
+      </c>
+      <c r="AD11" s="1">
+        <v>4.0676959678748098E-2</v>
+      </c>
+      <c r="AE11" s="1">
+        <v>-1.7705443773836999E-2</v>
+      </c>
+      <c r="AF11" s="1">
+        <v>-3.6622199846936702E-2</v>
+      </c>
+      <c r="AG11" s="1">
+        <v>-4.2768128737566399E-2</v>
+      </c>
+      <c r="AH11" s="1">
+        <v>-4.5386778710089497E-2</v>
+      </c>
+      <c r="AI11" s="1">
+        <v>-4.6497799702381402E-2</v>
+      </c>
+      <c r="AJ11" s="1">
+        <v>-4.6739563089322901E-2</v>
+      </c>
+      <c r="AK11" s="1">
+        <v>-4.6380186884066803E-2</v>
+      </c>
+      <c r="AL11" s="1">
+        <v>-4.5567134168963699E-2</v>
+      </c>
+      <c r="AM11" s="1">
+        <v>-4.4406611763665602E-2</v>
+      </c>
+      <c r="AN11" s="1">
+        <v>-4.2991021231211499E-2</v>
+      </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>9.9999999999999797E-2</v>
       </c>
@@ -3221,8 +3599,71 @@
       <c r="J12" s="1">
         <v>-6.13084809574427E-2</v>
       </c>
+      <c r="T12" s="1">
+        <v>4.0378860278279097E-2</v>
+      </c>
+      <c r="U12" s="1">
+        <v>4.2132668687199899E-2</v>
+      </c>
+      <c r="V12" s="1">
+        <v>4.3961704452390199E-2</v>
+      </c>
+      <c r="W12" s="1">
+        <v>4.58611971876038E-2</v>
+      </c>
+      <c r="X12" s="1">
+        <v>4.7832330618094797E-2</v>
+      </c>
+      <c r="Y12" s="1">
+        <v>4.9889523428374598E-2</v>
+      </c>
+      <c r="Z12" s="1">
+        <v>5.2073090247695401E-2</v>
+      </c>
+      <c r="AA12" s="1">
+        <v>5.4466906119278603E-2</v>
+      </c>
+      <c r="AB12" s="1">
+        <v>5.7166222052488502E-2</v>
+      </c>
+      <c r="AC12" s="1">
+        <v>5.92691001413648E-2</v>
+      </c>
+      <c r="AD12" s="1">
+        <v>4.0676959678748098E-2</v>
+      </c>
+      <c r="AE12" s="1">
+        <v>-1.7705443773836999E-2</v>
+      </c>
+      <c r="AF12" s="1">
+        <v>-3.6622199846936702E-2</v>
+      </c>
+      <c r="AG12" s="1">
+        <v>-4.2768128737566399E-2</v>
+      </c>
+      <c r="AH12" s="1">
+        <v>-4.5386778710089497E-2</v>
+      </c>
+      <c r="AI12" s="1">
+        <v>-4.6497799702381402E-2</v>
+      </c>
+      <c r="AJ12" s="1">
+        <v>-4.6739563089322901E-2</v>
+      </c>
+      <c r="AK12" s="1">
+        <v>-4.6380186884066803E-2</v>
+      </c>
+      <c r="AL12" s="1">
+        <v>-4.5567134168963699E-2</v>
+      </c>
+      <c r="AM12" s="1">
+        <v>-4.4406611763665602E-2</v>
+      </c>
+      <c r="AN12" s="1">
+        <v>-4.2991021231211499E-2</v>
+      </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>0.19999999999999901</v>
       </c>
@@ -3253,8 +3694,71 @@
       <c r="J13" s="1">
         <v>-7.94913721572683E-2</v>
       </c>
+      <c r="T13" s="1">
+        <v>4.0378860278279097E-2</v>
+      </c>
+      <c r="U13" s="1">
+        <v>4.2132668687199899E-2</v>
+      </c>
+      <c r="V13" s="1">
+        <v>4.3961704452390199E-2</v>
+      </c>
+      <c r="W13" s="1">
+        <v>4.58611971876038E-2</v>
+      </c>
+      <c r="X13" s="1">
+        <v>4.7832330618094797E-2</v>
+      </c>
+      <c r="Y13" s="1">
+        <v>4.9889523428374598E-2</v>
+      </c>
+      <c r="Z13" s="1">
+        <v>5.2073090247695401E-2</v>
+      </c>
+      <c r="AA13" s="1">
+        <v>5.4466906119278603E-2</v>
+      </c>
+      <c r="AB13" s="1">
+        <v>5.7166222052488502E-2</v>
+      </c>
+      <c r="AC13" s="1">
+        <v>5.92691001413648E-2</v>
+      </c>
+      <c r="AD13" s="1">
+        <v>4.0676959678748098E-2</v>
+      </c>
+      <c r="AE13" s="1">
+        <v>-1.7705443773836999E-2</v>
+      </c>
+      <c r="AF13" s="1">
+        <v>-3.6622199846936702E-2</v>
+      </c>
+      <c r="AG13" s="1">
+        <v>-4.2768128737566399E-2</v>
+      </c>
+      <c r="AH13" s="1">
+        <v>-4.5386778710089497E-2</v>
+      </c>
+      <c r="AI13" s="1">
+        <v>-4.6497799702381402E-2</v>
+      </c>
+      <c r="AJ13" s="1">
+        <v>-4.6739563089322901E-2</v>
+      </c>
+      <c r="AK13" s="1">
+        <v>-4.6380186884066803E-2</v>
+      </c>
+      <c r="AL13" s="1">
+        <v>-4.5567134168963699E-2</v>
+      </c>
+      <c r="AM13" s="1">
+        <v>-4.4406611763665602E-2</v>
+      </c>
+      <c r="AN13" s="1">
+        <v>-4.2991021231211499E-2</v>
+      </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>0.29999999999999899</v>
       </c>
@@ -3285,8 +3789,71 @@
       <c r="J14" s="1">
         <v>-8.46024820828747E-2</v>
       </c>
+      <c r="T14" s="1">
+        <v>4.0378860278279097E-2</v>
+      </c>
+      <c r="U14" s="1">
+        <v>4.2132668687199899E-2</v>
+      </c>
+      <c r="V14" s="1">
+        <v>4.3961704452390199E-2</v>
+      </c>
+      <c r="W14" s="1">
+        <v>4.58611971876038E-2</v>
+      </c>
+      <c r="X14" s="1">
+        <v>4.7832330618094797E-2</v>
+      </c>
+      <c r="Y14" s="1">
+        <v>4.9889523428374598E-2</v>
+      </c>
+      <c r="Z14" s="1">
+        <v>5.2073090247695401E-2</v>
+      </c>
+      <c r="AA14" s="1">
+        <v>5.4466906119278603E-2</v>
+      </c>
+      <c r="AB14" s="1">
+        <v>5.7166222052488502E-2</v>
+      </c>
+      <c r="AC14" s="1">
+        <v>5.92691001413648E-2</v>
+      </c>
+      <c r="AD14" s="1">
+        <v>4.0676959678748098E-2</v>
+      </c>
+      <c r="AE14" s="1">
+        <v>-1.7705443773836999E-2</v>
+      </c>
+      <c r="AF14" s="1">
+        <v>-3.6622199846936702E-2</v>
+      </c>
+      <c r="AG14" s="1">
+        <v>-4.2768128737566399E-2</v>
+      </c>
+      <c r="AH14" s="1">
+        <v>-4.5386778710089497E-2</v>
+      </c>
+      <c r="AI14" s="1">
+        <v>-4.6497799702381402E-2</v>
+      </c>
+      <c r="AJ14" s="1">
+        <v>-4.6739563089322901E-2</v>
+      </c>
+      <c r="AK14" s="1">
+        <v>-4.6380186884066803E-2</v>
+      </c>
+      <c r="AL14" s="1">
+        <v>-4.5567134168963699E-2</v>
+      </c>
+      <c r="AM14" s="1">
+        <v>-4.4406611763665602E-2</v>
+      </c>
+      <c r="AN14" s="1">
+        <v>-4.2991021231211499E-2</v>
+      </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>0.39999999999999902</v>
       </c>
@@ -3317,8 +3884,71 @@
       <c r="J15" s="1">
         <v>-8.6989492409939306E-2</v>
       </c>
+      <c r="T15" s="1">
+        <v>4.0378860278279097E-2</v>
+      </c>
+      <c r="U15" s="1">
+        <v>4.2132668687199899E-2</v>
+      </c>
+      <c r="V15" s="1">
+        <v>4.3961704452390199E-2</v>
+      </c>
+      <c r="W15" s="1">
+        <v>4.58611971876038E-2</v>
+      </c>
+      <c r="X15" s="1">
+        <v>4.7832330618094797E-2</v>
+      </c>
+      <c r="Y15" s="1">
+        <v>4.9889523428374598E-2</v>
+      </c>
+      <c r="Z15" s="1">
+        <v>5.2073090247695401E-2</v>
+      </c>
+      <c r="AA15" s="1">
+        <v>5.4466906119278603E-2</v>
+      </c>
+      <c r="AB15" s="1">
+        <v>5.7166222052488502E-2</v>
+      </c>
+      <c r="AC15" s="1">
+        <v>5.92691001413648E-2</v>
+      </c>
+      <c r="AD15" s="1">
+        <v>4.0676959678748098E-2</v>
+      </c>
+      <c r="AE15" s="1">
+        <v>-1.7705443773836999E-2</v>
+      </c>
+      <c r="AF15" s="1">
+        <v>-3.6622199846936702E-2</v>
+      </c>
+      <c r="AG15" s="1">
+        <v>-4.2768128737566399E-2</v>
+      </c>
+      <c r="AH15" s="1">
+        <v>-4.5386778710089497E-2</v>
+      </c>
+      <c r="AI15" s="1">
+        <v>-4.6497799702381402E-2</v>
+      </c>
+      <c r="AJ15" s="1">
+        <v>-4.6739563089322901E-2</v>
+      </c>
+      <c r="AK15" s="1">
+        <v>-4.6380186884066803E-2</v>
+      </c>
+      <c r="AL15" s="1">
+        <v>-4.5567134168963699E-2</v>
+      </c>
+      <c r="AM15" s="1">
+        <v>-4.4406611763665602E-2</v>
+      </c>
+      <c r="AN15" s="1">
+        <v>-4.2991021231211499E-2</v>
+      </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>0.499999999999999</v>
       </c>
@@ -3349,8 +3979,71 @@
       <c r="J16" s="1">
         <v>-8.8369856357226398E-2</v>
       </c>
+      <c r="T16" s="1">
+        <v>4.0378860278279097E-2</v>
+      </c>
+      <c r="U16" s="1">
+        <v>4.2132668687199899E-2</v>
+      </c>
+      <c r="V16" s="1">
+        <v>4.3961704452390199E-2</v>
+      </c>
+      <c r="W16" s="1">
+        <v>4.58611971876038E-2</v>
+      </c>
+      <c r="X16" s="1">
+        <v>4.7832330618094797E-2</v>
+      </c>
+      <c r="Y16" s="1">
+        <v>4.9889523428374598E-2</v>
+      </c>
+      <c r="Z16" s="1">
+        <v>5.2073090247695401E-2</v>
+      </c>
+      <c r="AA16" s="1">
+        <v>5.4466906119278603E-2</v>
+      </c>
+      <c r="AB16" s="1">
+        <v>5.7166222052488502E-2</v>
+      </c>
+      <c r="AC16" s="1">
+        <v>5.92691001413648E-2</v>
+      </c>
+      <c r="AD16" s="1">
+        <v>4.0676959678748098E-2</v>
+      </c>
+      <c r="AE16" s="1">
+        <v>-1.7705443773836999E-2</v>
+      </c>
+      <c r="AF16" s="1">
+        <v>-3.6622199846936702E-2</v>
+      </c>
+      <c r="AG16" s="1">
+        <v>-4.2768128737566399E-2</v>
+      </c>
+      <c r="AH16" s="1">
+        <v>-4.5386778710089497E-2</v>
+      </c>
+      <c r="AI16" s="1">
+        <v>-4.6497799702381402E-2</v>
+      </c>
+      <c r="AJ16" s="1">
+        <v>-4.6739563089322901E-2</v>
+      </c>
+      <c r="AK16" s="1">
+        <v>-4.6380186884066803E-2</v>
+      </c>
+      <c r="AL16" s="1">
+        <v>-4.5567134168963699E-2</v>
+      </c>
+      <c r="AM16" s="1">
+        <v>-4.4406611763665602E-2</v>
+      </c>
+      <c r="AN16" s="1">
+        <v>-4.2991021231211499E-2</v>
+      </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>0.59999999999999898</v>
       </c>
@@ -3381,8 +4074,71 @@
       <c r="J17" s="1">
         <v>-8.9160479741691098E-2</v>
       </c>
+      <c r="T17" s="1">
+        <v>4.0378860278279097E-2</v>
+      </c>
+      <c r="U17" s="1">
+        <v>4.2132668687199899E-2</v>
+      </c>
+      <c r="V17" s="1">
+        <v>4.3961704452390199E-2</v>
+      </c>
+      <c r="W17" s="1">
+        <v>4.58611971876038E-2</v>
+      </c>
+      <c r="X17" s="1">
+        <v>4.7832330618094797E-2</v>
+      </c>
+      <c r="Y17" s="1">
+        <v>4.9889523428374598E-2</v>
+      </c>
+      <c r="Z17" s="1">
+        <v>5.2073090247695401E-2</v>
+      </c>
+      <c r="AA17" s="1">
+        <v>5.4466906119278603E-2</v>
+      </c>
+      <c r="AB17" s="1">
+        <v>5.7166222052488502E-2</v>
+      </c>
+      <c r="AC17" s="1">
+        <v>5.92691001413648E-2</v>
+      </c>
+      <c r="AD17" s="1">
+        <v>4.0676959678748098E-2</v>
+      </c>
+      <c r="AE17" s="1">
+        <v>-1.7705443773836999E-2</v>
+      </c>
+      <c r="AF17" s="1">
+        <v>-3.6622199846936702E-2</v>
+      </c>
+      <c r="AG17" s="1">
+        <v>-4.2768128737566399E-2</v>
+      </c>
+      <c r="AH17" s="1">
+        <v>-4.5386778710089497E-2</v>
+      </c>
+      <c r="AI17" s="1">
+        <v>-4.6497799702381402E-2</v>
+      </c>
+      <c r="AJ17" s="1">
+        <v>-4.6739563089322901E-2</v>
+      </c>
+      <c r="AK17" s="1">
+        <v>-4.6380186884066803E-2</v>
+      </c>
+      <c r="AL17" s="1">
+        <v>-4.5567134168963699E-2</v>
+      </c>
+      <c r="AM17" s="1">
+        <v>-4.4406611763665602E-2</v>
+      </c>
+      <c r="AN17" s="1">
+        <v>-4.2991021231211499E-2</v>
+      </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <v>0.69999999999999896</v>
       </c>
@@ -3413,8 +4169,71 @@
       <c r="J18" s="1">
         <v>-8.9466241475643499E-2</v>
       </c>
+      <c r="T18" s="1">
+        <v>4.0378860278279097E-2</v>
+      </c>
+      <c r="U18" s="1">
+        <v>4.2132668687199899E-2</v>
+      </c>
+      <c r="V18" s="1">
+        <v>4.3961704452390199E-2</v>
+      </c>
+      <c r="W18" s="1">
+        <v>4.58611971876038E-2</v>
+      </c>
+      <c r="X18" s="1">
+        <v>4.7832330618094797E-2</v>
+      </c>
+      <c r="Y18" s="1">
+        <v>4.9889523428374598E-2</v>
+      </c>
+      <c r="Z18" s="1">
+        <v>5.2073090247695401E-2</v>
+      </c>
+      <c r="AA18" s="1">
+        <v>5.4466906119278603E-2</v>
+      </c>
+      <c r="AB18" s="1">
+        <v>5.7166222052488502E-2</v>
+      </c>
+      <c r="AC18" s="1">
+        <v>5.92691001413648E-2</v>
+      </c>
+      <c r="AD18" s="1">
+        <v>4.0676959678748098E-2</v>
+      </c>
+      <c r="AE18" s="1">
+        <v>-1.7705443773836999E-2</v>
+      </c>
+      <c r="AF18" s="1">
+        <v>-3.6622199846936702E-2</v>
+      </c>
+      <c r="AG18" s="1">
+        <v>-4.2768128737566399E-2</v>
+      </c>
+      <c r="AH18" s="1">
+        <v>-4.5386778710089497E-2</v>
+      </c>
+      <c r="AI18" s="1">
+        <v>-4.6497799702381402E-2</v>
+      </c>
+      <c r="AJ18" s="1">
+        <v>-4.6739563089322901E-2</v>
+      </c>
+      <c r="AK18" s="1">
+        <v>-4.6380186884066803E-2</v>
+      </c>
+      <c r="AL18" s="1">
+        <v>-4.5567134168963699E-2</v>
+      </c>
+      <c r="AM18" s="1">
+        <v>-4.4406611763665602E-2</v>
+      </c>
+      <c r="AN18" s="1">
+        <v>-4.2991021231211499E-2</v>
+      </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <v>0.79999999999999905</v>
       </c>
@@ -3445,8 +4264,71 @@
       <c r="J19" s="1">
         <v>-8.9300910473692999E-2</v>
       </c>
+      <c r="T19" s="1">
+        <v>4.0378860278279097E-2</v>
+      </c>
+      <c r="U19" s="1">
+        <v>4.2132668687199899E-2</v>
+      </c>
+      <c r="V19" s="1">
+        <v>4.3961704452390199E-2</v>
+      </c>
+      <c r="W19" s="1">
+        <v>4.58611971876038E-2</v>
+      </c>
+      <c r="X19" s="1">
+        <v>4.7832330618094797E-2</v>
+      </c>
+      <c r="Y19" s="1">
+        <v>4.9889523428374598E-2</v>
+      </c>
+      <c r="Z19" s="1">
+        <v>5.2073090247695401E-2</v>
+      </c>
+      <c r="AA19" s="1">
+        <v>5.4466906119278603E-2</v>
+      </c>
+      <c r="AB19" s="1">
+        <v>5.7166222052488502E-2</v>
+      </c>
+      <c r="AC19" s="1">
+        <v>5.92691001413648E-2</v>
+      </c>
+      <c r="AD19" s="1">
+        <v>4.0676959678748098E-2</v>
+      </c>
+      <c r="AE19" s="1">
+        <v>-1.7705443773836999E-2</v>
+      </c>
+      <c r="AF19" s="1">
+        <v>-3.6622199846936702E-2</v>
+      </c>
+      <c r="AG19" s="1">
+        <v>-4.2768128737566399E-2</v>
+      </c>
+      <c r="AH19" s="1">
+        <v>-4.5386778710089497E-2</v>
+      </c>
+      <c r="AI19" s="1">
+        <v>-4.6497799702381402E-2</v>
+      </c>
+      <c r="AJ19" s="1">
+        <v>-4.6739563089322901E-2</v>
+      </c>
+      <c r="AK19" s="1">
+        <v>-4.6380186884066803E-2</v>
+      </c>
+      <c r="AL19" s="1">
+        <v>-4.5567134168963699E-2</v>
+      </c>
+      <c r="AM19" s="1">
+        <v>-4.4406611763665602E-2</v>
+      </c>
+      <c r="AN19" s="1">
+        <v>-4.2991021231211499E-2</v>
+      </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
         <v>0.89999999999999902</v>
       </c>
@@ -3477,8 +4359,71 @@
       <c r="J20" s="1">
         <v>-8.8662475655051601E-2</v>
       </c>
+      <c r="T20" s="1">
+        <v>4.0378860278279097E-2</v>
+      </c>
+      <c r="U20" s="1">
+        <v>4.2132668687199899E-2</v>
+      </c>
+      <c r="V20" s="1">
+        <v>4.3961704452390199E-2</v>
+      </c>
+      <c r="W20" s="1">
+        <v>4.58611971876038E-2</v>
+      </c>
+      <c r="X20" s="1">
+        <v>4.7832330618094797E-2</v>
+      </c>
+      <c r="Y20" s="1">
+        <v>4.9889523428374598E-2</v>
+      </c>
+      <c r="Z20" s="1">
+        <v>5.2073090247695401E-2</v>
+      </c>
+      <c r="AA20" s="1">
+        <v>5.4466906119278603E-2</v>
+      </c>
+      <c r="AB20" s="1">
+        <v>5.7166222052488502E-2</v>
+      </c>
+      <c r="AC20" s="1">
+        <v>5.92691001413648E-2</v>
+      </c>
+      <c r="AD20" s="1">
+        <v>4.0676959678748098E-2</v>
+      </c>
+      <c r="AE20" s="1">
+        <v>-1.7705443773836999E-2</v>
+      </c>
+      <c r="AF20" s="1">
+        <v>-3.6622199846936702E-2</v>
+      </c>
+      <c r="AG20" s="1">
+        <v>-4.2768128737566399E-2</v>
+      </c>
+      <c r="AH20" s="1">
+        <v>-4.5386778710089497E-2</v>
+      </c>
+      <c r="AI20" s="1">
+        <v>-4.6497799702381402E-2</v>
+      </c>
+      <c r="AJ20" s="1">
+        <v>-4.6739563089322901E-2</v>
+      </c>
+      <c r="AK20" s="1">
+        <v>-4.6380186884066803E-2</v>
+      </c>
+      <c r="AL20" s="1">
+        <v>-4.5567134168963699E-2</v>
+      </c>
+      <c r="AM20" s="1">
+        <v>-4.4406611763665602E-2</v>
+      </c>
+      <c r="AN20" s="1">
+        <v>-4.2991021231211499E-2</v>
+      </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
         <v>0.999999999999999</v>
       </c>
@@ -3508,6 +4453,1759 @@
       </c>
       <c r="J21" s="1">
         <v>-8.7567602191516797E-2</v>
+      </c>
+      <c r="T21" s="1">
+        <v>4.0378860278279097E-2</v>
+      </c>
+      <c r="U21" s="1">
+        <v>4.2132668687199899E-2</v>
+      </c>
+      <c r="V21" s="1">
+        <v>4.3961704452390199E-2</v>
+      </c>
+      <c r="W21" s="1">
+        <v>4.58611971876038E-2</v>
+      </c>
+      <c r="X21" s="1">
+        <v>4.7832330618094797E-2</v>
+      </c>
+      <c r="Y21" s="1">
+        <v>4.9889523428374598E-2</v>
+      </c>
+      <c r="Z21" s="1">
+        <v>5.2073090247695401E-2</v>
+      </c>
+      <c r="AA21" s="1">
+        <v>5.4466906119278603E-2</v>
+      </c>
+      <c r="AB21" s="1">
+        <v>5.7166222052488502E-2</v>
+      </c>
+      <c r="AC21" s="1">
+        <v>5.92691001413648E-2</v>
+      </c>
+      <c r="AD21" s="1">
+        <v>4.0676959678748098E-2</v>
+      </c>
+      <c r="AE21" s="1">
+        <v>-1.7705443773836999E-2</v>
+      </c>
+      <c r="AF21" s="1">
+        <v>-3.6622199846936702E-2</v>
+      </c>
+      <c r="AG21" s="1">
+        <v>-4.2768128737566399E-2</v>
+      </c>
+      <c r="AH21" s="1">
+        <v>-4.5386778710089497E-2</v>
+      </c>
+      <c r="AI21" s="1">
+        <v>-4.6497799702381402E-2</v>
+      </c>
+      <c r="AJ21" s="1">
+        <v>-4.6739563089322901E-2</v>
+      </c>
+      <c r="AK21" s="1">
+        <v>-4.6380186884066803E-2</v>
+      </c>
+      <c r="AL21" s="1">
+        <v>-4.5567134168963699E-2</v>
+      </c>
+      <c r="AM21" s="1">
+        <v>-4.4406611763665602E-2</v>
+      </c>
+      <c r="AN21" s="1">
+        <v>-4.2991021231211499E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="T22" s="1">
+        <v>4.0378860278279097E-2</v>
+      </c>
+      <c r="U22" s="1">
+        <v>4.2132668687199899E-2</v>
+      </c>
+      <c r="V22" s="1">
+        <v>4.3961704452390199E-2</v>
+      </c>
+      <c r="W22" s="1">
+        <v>4.58611971876038E-2</v>
+      </c>
+      <c r="X22" s="1">
+        <v>4.7832330618094797E-2</v>
+      </c>
+      <c r="Y22" s="1">
+        <v>4.9889523428374598E-2</v>
+      </c>
+      <c r="Z22" s="1">
+        <v>5.2073090247695401E-2</v>
+      </c>
+      <c r="AA22" s="1">
+        <v>5.4466906119278603E-2</v>
+      </c>
+      <c r="AB22" s="1">
+        <v>5.7166222052488502E-2</v>
+      </c>
+      <c r="AC22" s="1">
+        <v>5.92691001413648E-2</v>
+      </c>
+      <c r="AD22" s="1">
+        <v>4.0676959678748098E-2</v>
+      </c>
+      <c r="AE22" s="1">
+        <v>-1.7705443773836999E-2</v>
+      </c>
+      <c r="AF22" s="1">
+        <v>-3.6622199846936702E-2</v>
+      </c>
+      <c r="AG22" s="1">
+        <v>-4.2768128737566399E-2</v>
+      </c>
+      <c r="AH22" s="1">
+        <v>-4.5386778710089497E-2</v>
+      </c>
+      <c r="AI22" s="1">
+        <v>-4.6497799702381402E-2</v>
+      </c>
+      <c r="AJ22" s="1">
+        <v>-4.6739563089322901E-2</v>
+      </c>
+      <c r="AK22" s="1">
+        <v>-4.6380186884066803E-2</v>
+      </c>
+      <c r="AL22" s="1">
+        <v>-4.5567134168963699E-2</v>
+      </c>
+      <c r="AM22" s="1">
+        <v>-4.4406611763665602E-2</v>
+      </c>
+      <c r="AN22" s="1">
+        <v>-4.2991021231211499E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="T23" s="1">
+        <v>4.0378860278279097E-2</v>
+      </c>
+      <c r="U23" s="1">
+        <v>4.2132668687199899E-2</v>
+      </c>
+      <c r="V23" s="1">
+        <v>4.3961704452390199E-2</v>
+      </c>
+      <c r="W23" s="1">
+        <v>4.58611971876038E-2</v>
+      </c>
+      <c r="X23" s="1">
+        <v>4.7832330618094797E-2</v>
+      </c>
+      <c r="Y23" s="1">
+        <v>4.9889523428374598E-2</v>
+      </c>
+      <c r="Z23" s="1">
+        <v>5.2073090247695401E-2</v>
+      </c>
+      <c r="AA23" s="1">
+        <v>5.4466906119278603E-2</v>
+      </c>
+      <c r="AB23" s="1">
+        <v>5.7166222052488502E-2</v>
+      </c>
+      <c r="AC23" s="1">
+        <v>5.92691001413648E-2</v>
+      </c>
+      <c r="AD23" s="1">
+        <v>4.0676959678748098E-2</v>
+      </c>
+      <c r="AE23" s="1">
+        <v>-1.7705443773836999E-2</v>
+      </c>
+      <c r="AF23" s="1">
+        <v>-3.6622199846936702E-2</v>
+      </c>
+      <c r="AG23" s="1">
+        <v>-4.2768128737566399E-2</v>
+      </c>
+      <c r="AH23" s="1">
+        <v>-4.5386778710089497E-2</v>
+      </c>
+      <c r="AI23" s="1">
+        <v>-4.6497799702381402E-2</v>
+      </c>
+      <c r="AJ23" s="1">
+        <v>-4.6739563089322901E-2</v>
+      </c>
+      <c r="AK23" s="1">
+        <v>-4.6380186884066803E-2</v>
+      </c>
+      <c r="AL23" s="1">
+        <v>-4.5567134168963699E-2</v>
+      </c>
+      <c r="AM23" s="1">
+        <v>-4.4406611763665602E-2</v>
+      </c>
+      <c r="AN23" s="1">
+        <v>-4.2991021231211499E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="T24" s="1">
+        <v>4.0378860278279097E-2</v>
+      </c>
+      <c r="U24" s="1">
+        <v>4.2132668687199899E-2</v>
+      </c>
+      <c r="V24" s="1">
+        <v>4.3961704452390199E-2</v>
+      </c>
+      <c r="W24" s="1">
+        <v>4.58611971876038E-2</v>
+      </c>
+      <c r="X24" s="1">
+        <v>4.7832330618094797E-2</v>
+      </c>
+      <c r="Y24" s="1">
+        <v>4.9889523428374598E-2</v>
+      </c>
+      <c r="Z24" s="1">
+        <v>5.2073090247695401E-2</v>
+      </c>
+      <c r="AA24" s="1">
+        <v>5.4466906119278603E-2</v>
+      </c>
+      <c r="AB24" s="1">
+        <v>5.7166222052488502E-2</v>
+      </c>
+      <c r="AC24" s="1">
+        <v>5.92691001413648E-2</v>
+      </c>
+      <c r="AD24" s="1">
+        <v>4.0676959678748098E-2</v>
+      </c>
+      <c r="AE24" s="1">
+        <v>-1.7705443773836999E-2</v>
+      </c>
+      <c r="AF24" s="1">
+        <v>-3.6622199846936702E-2</v>
+      </c>
+      <c r="AG24" s="1">
+        <v>-4.2768128737566399E-2</v>
+      </c>
+      <c r="AH24" s="1">
+        <v>-4.5386778710089497E-2</v>
+      </c>
+      <c r="AI24" s="1">
+        <v>-4.6497799702381402E-2</v>
+      </c>
+      <c r="AJ24" s="1">
+        <v>-4.6739563089322901E-2</v>
+      </c>
+      <c r="AK24" s="1">
+        <v>-4.6380186884066803E-2</v>
+      </c>
+      <c r="AL24" s="1">
+        <v>-4.5567134168963699E-2</v>
+      </c>
+      <c r="AM24" s="1">
+        <v>-4.4406611763665602E-2</v>
+      </c>
+      <c r="AN24" s="1">
+        <v>-4.2991021231211499E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="T25" s="1">
+        <v>4.0378860278279097E-2</v>
+      </c>
+      <c r="U25" s="1">
+        <v>4.2132668687199899E-2</v>
+      </c>
+      <c r="V25" s="1">
+        <v>4.3961704452390199E-2</v>
+      </c>
+      <c r="W25" s="1">
+        <v>4.58611971876038E-2</v>
+      </c>
+      <c r="X25" s="1">
+        <v>4.7832330618094797E-2</v>
+      </c>
+      <c r="Y25" s="1">
+        <v>4.9889523428374598E-2</v>
+      </c>
+      <c r="Z25" s="1">
+        <v>5.2073090247695401E-2</v>
+      </c>
+      <c r="AA25" s="1">
+        <v>5.4466906119278603E-2</v>
+      </c>
+      <c r="AB25" s="1">
+        <v>5.7166222052488502E-2</v>
+      </c>
+      <c r="AC25" s="1">
+        <v>5.92691001413648E-2</v>
+      </c>
+      <c r="AD25" s="1">
+        <v>4.0676959678748098E-2</v>
+      </c>
+      <c r="AE25" s="1">
+        <v>-1.7705443773836999E-2</v>
+      </c>
+      <c r="AF25" s="1">
+        <v>-3.6622199846936702E-2</v>
+      </c>
+      <c r="AG25" s="1">
+        <v>-4.2768128737566399E-2</v>
+      </c>
+      <c r="AH25" s="1">
+        <v>-4.5386778710089497E-2</v>
+      </c>
+      <c r="AI25" s="1">
+        <v>-4.6497799702381402E-2</v>
+      </c>
+      <c r="AJ25" s="1">
+        <v>-4.6739563089322901E-2</v>
+      </c>
+      <c r="AK25" s="1">
+        <v>-4.6380186884066803E-2</v>
+      </c>
+      <c r="AL25" s="1">
+        <v>-4.5567134168963699E-2</v>
+      </c>
+      <c r="AM25" s="1">
+        <v>-4.4406611763665602E-2</v>
+      </c>
+      <c r="AN25" s="1">
+        <v>-4.2991021231211499E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="T26" s="1">
+        <v>4.0378860278279097E-2</v>
+      </c>
+      <c r="U26" s="1">
+        <v>4.2132668687199899E-2</v>
+      </c>
+      <c r="V26" s="1">
+        <v>4.3961704452390199E-2</v>
+      </c>
+      <c r="W26" s="1">
+        <v>4.58611971876038E-2</v>
+      </c>
+      <c r="X26" s="1">
+        <v>4.7832330618094797E-2</v>
+      </c>
+      <c r="Y26" s="1">
+        <v>4.9889523428374598E-2</v>
+      </c>
+      <c r="Z26" s="1">
+        <v>5.2073090247695401E-2</v>
+      </c>
+      <c r="AA26" s="1">
+        <v>5.4466906119278603E-2</v>
+      </c>
+      <c r="AB26" s="1">
+        <v>5.7166222052488502E-2</v>
+      </c>
+      <c r="AC26" s="1">
+        <v>5.92691001413648E-2</v>
+      </c>
+      <c r="AD26" s="1">
+        <v>4.0676959678748098E-2</v>
+      </c>
+      <c r="AE26" s="1">
+        <v>-1.7705443773836999E-2</v>
+      </c>
+      <c r="AF26" s="1">
+        <v>-3.6622199846936702E-2</v>
+      </c>
+      <c r="AG26" s="1">
+        <v>-4.2768128737566399E-2</v>
+      </c>
+      <c r="AH26" s="1">
+        <v>-4.5386778710089497E-2</v>
+      </c>
+      <c r="AI26" s="1">
+        <v>-4.6497799702381402E-2</v>
+      </c>
+      <c r="AJ26" s="1">
+        <v>-4.6739563089322901E-2</v>
+      </c>
+      <c r="AK26" s="1">
+        <v>-4.6380186884066803E-2</v>
+      </c>
+      <c r="AL26" s="1">
+        <v>-4.5567134168963699E-2</v>
+      </c>
+      <c r="AM26" s="1">
+        <v>-4.4406611763665602E-2</v>
+      </c>
+      <c r="AN26" s="1">
+        <v>-4.2991021231211499E-2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="C30" s="1">
+        <v>8.8556181883839999E-2</v>
+      </c>
+      <c r="D30" s="1">
+        <v>8.9212689874109297E-2</v>
+      </c>
+      <c r="E30" s="1">
+        <v>8.9816294891596704E-2</v>
+      </c>
+      <c r="F30" s="1">
+        <v>9.0388567173138701E-2</v>
+      </c>
+      <c r="G30" s="1">
+        <v>9.0977068456113905E-2</v>
+      </c>
+      <c r="H30" s="1">
+        <v>9.1673872427769407E-2</v>
+      </c>
+      <c r="I30" s="1">
+        <v>9.2652035359771304E-2</v>
+      </c>
+      <c r="J30" s="1">
+        <v>9.4241556626423195E-2</v>
+      </c>
+      <c r="K30" s="1">
+        <v>9.7054520738937097E-2</v>
+      </c>
+      <c r="L30" s="1">
+        <v>0.101174938968539</v>
+      </c>
+      <c r="M30" s="1">
+        <v>7.5703386932235606E-2</v>
+      </c>
+      <c r="N30" s="1">
+        <v>-2.0039018597716601E-2</v>
+      </c>
+      <c r="O30" s="1">
+        <v>-4.8878872783287598E-2</v>
+      </c>
+      <c r="P30" s="1">
+        <v>-5.7490681963816598E-2</v>
+      </c>
+      <c r="Q30" s="1">
+        <v>-6.0690162665262198E-2</v>
+      </c>
+      <c r="R30" s="1">
+        <v>-6.1742913383202397E-2</v>
+      </c>
+      <c r="S30" s="1">
+        <v>-6.1686938324039702E-2</v>
+      </c>
+      <c r="T30" s="1">
+        <v>-6.0942186840339002E-2</v>
+      </c>
+      <c r="U30" s="1">
+        <v>-5.9716454824717803E-2</v>
+      </c>
+      <c r="V30" s="1">
+        <v>-5.8139393575416101E-2</v>
+      </c>
+      <c r="W30" s="1">
+        <v>-5.6312655677613697E-2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="C31" s="1">
+        <v>8.8556181883839999E-2</v>
+      </c>
+      <c r="D31" s="1">
+        <v>8.9212689874109297E-2</v>
+      </c>
+      <c r="E31" s="1">
+        <v>8.9816294891596704E-2</v>
+      </c>
+      <c r="F31" s="1">
+        <v>9.0388567173138701E-2</v>
+      </c>
+      <c r="G31" s="1">
+        <v>9.0977068456113905E-2</v>
+      </c>
+      <c r="H31" s="1">
+        <v>9.1673872427769407E-2</v>
+      </c>
+      <c r="I31" s="1">
+        <v>9.2652035359771304E-2</v>
+      </c>
+      <c r="J31" s="1">
+        <v>9.4241556626423195E-2</v>
+      </c>
+      <c r="K31" s="1">
+        <v>9.7054520738937097E-2</v>
+      </c>
+      <c r="L31" s="1">
+        <v>0.101174938968539</v>
+      </c>
+      <c r="M31" s="1">
+        <v>7.5703386932235606E-2</v>
+      </c>
+      <c r="N31" s="1">
+        <v>-2.0039018597716601E-2</v>
+      </c>
+      <c r="O31" s="1">
+        <v>-4.8878872783287598E-2</v>
+      </c>
+      <c r="P31" s="1">
+        <v>-5.7490681963816598E-2</v>
+      </c>
+      <c r="Q31" s="1">
+        <v>-6.0690162665262198E-2</v>
+      </c>
+      <c r="R31" s="1">
+        <v>-6.1742913383202397E-2</v>
+      </c>
+      <c r="S31" s="1">
+        <v>-6.1686938324039702E-2</v>
+      </c>
+      <c r="T31" s="1">
+        <v>-6.0942186840339002E-2</v>
+      </c>
+      <c r="U31" s="1">
+        <v>-5.9716454824717803E-2</v>
+      </c>
+      <c r="V31" s="1">
+        <v>-5.8139393575416101E-2</v>
+      </c>
+      <c r="W31" s="1">
+        <v>-5.6312655677613697E-2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="C32" s="1">
+        <v>8.8556181883839999E-2</v>
+      </c>
+      <c r="D32" s="1">
+        <v>8.9212689874109297E-2</v>
+      </c>
+      <c r="E32" s="1">
+        <v>8.9816294891596704E-2</v>
+      </c>
+      <c r="F32" s="1">
+        <v>9.0388567173138701E-2</v>
+      </c>
+      <c r="G32" s="1">
+        <v>9.0977068456113905E-2</v>
+      </c>
+      <c r="H32" s="1">
+        <v>9.1673872427769407E-2</v>
+      </c>
+      <c r="I32" s="1">
+        <v>9.2652035359771304E-2</v>
+      </c>
+      <c r="J32" s="1">
+        <v>9.4241556626423195E-2</v>
+      </c>
+      <c r="K32" s="1">
+        <v>9.7054520738937097E-2</v>
+      </c>
+      <c r="L32" s="1">
+        <v>0.101174938968539</v>
+      </c>
+      <c r="M32" s="1">
+        <v>7.5703386932235606E-2</v>
+      </c>
+      <c r="N32" s="1">
+        <v>-2.0039018597716601E-2</v>
+      </c>
+      <c r="O32" s="1">
+        <v>-4.8878872783287598E-2</v>
+      </c>
+      <c r="P32" s="1">
+        <v>-5.7490681963816598E-2</v>
+      </c>
+      <c r="Q32" s="1">
+        <v>-6.0690162665262198E-2</v>
+      </c>
+      <c r="R32" s="1">
+        <v>-6.1742913383202397E-2</v>
+      </c>
+      <c r="S32" s="1">
+        <v>-6.1686938324039702E-2</v>
+      </c>
+      <c r="T32" s="1">
+        <v>-6.0942186840339002E-2</v>
+      </c>
+      <c r="U32" s="1">
+        <v>-5.9716454824717803E-2</v>
+      </c>
+      <c r="V32" s="1">
+        <v>-5.8139393575416101E-2</v>
+      </c>
+      <c r="W32" s="1">
+        <v>-5.6312655677613697E-2</v>
+      </c>
+    </row>
+    <row r="33" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="C33" s="1">
+        <v>8.8556181883839999E-2</v>
+      </c>
+      <c r="D33" s="1">
+        <v>8.9212689874109297E-2</v>
+      </c>
+      <c r="E33" s="1">
+        <v>8.9816294891596704E-2</v>
+      </c>
+      <c r="F33" s="1">
+        <v>9.0388567173138701E-2</v>
+      </c>
+      <c r="G33" s="1">
+        <v>9.0977068456113905E-2</v>
+      </c>
+      <c r="H33" s="1">
+        <v>9.1673872427769407E-2</v>
+      </c>
+      <c r="I33" s="1">
+        <v>9.2652035359771304E-2</v>
+      </c>
+      <c r="J33" s="1">
+        <v>9.4241556626423195E-2</v>
+      </c>
+      <c r="K33" s="1">
+        <v>9.7054520738937097E-2</v>
+      </c>
+      <c r="L33" s="1">
+        <v>0.101174938968539</v>
+      </c>
+      <c r="M33" s="1">
+        <v>7.5703386932235606E-2</v>
+      </c>
+      <c r="N33" s="1">
+        <v>-2.0039018597716601E-2</v>
+      </c>
+      <c r="O33" s="1">
+        <v>-4.8878872783287598E-2</v>
+      </c>
+      <c r="P33" s="1">
+        <v>-5.7490681963816598E-2</v>
+      </c>
+      <c r="Q33" s="1">
+        <v>-6.0690162665262198E-2</v>
+      </c>
+      <c r="R33" s="1">
+        <v>-6.1742913383202397E-2</v>
+      </c>
+      <c r="S33" s="1">
+        <v>-6.1686938324039702E-2</v>
+      </c>
+      <c r="T33" s="1">
+        <v>-6.0942186840339002E-2</v>
+      </c>
+      <c r="U33" s="1">
+        <v>-5.9716454824717803E-2</v>
+      </c>
+      <c r="V33" s="1">
+        <v>-5.8139393575416101E-2</v>
+      </c>
+      <c r="W33" s="1">
+        <v>-5.6312655677613697E-2</v>
+      </c>
+    </row>
+    <row r="34" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="C34" s="1">
+        <v>8.8556181883839999E-2</v>
+      </c>
+      <c r="D34" s="1">
+        <v>8.9212689874109297E-2</v>
+      </c>
+      <c r="E34" s="1">
+        <v>8.9816294891596704E-2</v>
+      </c>
+      <c r="F34" s="1">
+        <v>9.0388567173138701E-2</v>
+      </c>
+      <c r="G34" s="1">
+        <v>9.0977068456113905E-2</v>
+      </c>
+      <c r="H34" s="1">
+        <v>9.1673872427769407E-2</v>
+      </c>
+      <c r="I34" s="1">
+        <v>9.2652035359771304E-2</v>
+      </c>
+      <c r="J34" s="1">
+        <v>9.4241556626423195E-2</v>
+      </c>
+      <c r="K34" s="1">
+        <v>9.7054520738937097E-2</v>
+      </c>
+      <c r="L34" s="1">
+        <v>0.101174938968539</v>
+      </c>
+      <c r="M34" s="1">
+        <v>7.5703386932235606E-2</v>
+      </c>
+      <c r="N34" s="1">
+        <v>-2.0039018597716601E-2</v>
+      </c>
+      <c r="O34" s="1">
+        <v>-4.8878872783287598E-2</v>
+      </c>
+      <c r="P34" s="1">
+        <v>-5.7490681963816598E-2</v>
+      </c>
+      <c r="Q34" s="1">
+        <v>-6.0690162665262198E-2</v>
+      </c>
+      <c r="R34" s="1">
+        <v>-6.1742913383202397E-2</v>
+      </c>
+      <c r="S34" s="1">
+        <v>-6.1686938324039702E-2</v>
+      </c>
+      <c r="T34" s="1">
+        <v>-6.0942186840339002E-2</v>
+      </c>
+      <c r="U34" s="1">
+        <v>-5.9716454824717803E-2</v>
+      </c>
+      <c r="V34" s="1">
+        <v>-5.8139393575416101E-2</v>
+      </c>
+      <c r="W34" s="1">
+        <v>-5.6312655677613697E-2</v>
+      </c>
+    </row>
+    <row r="35" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="C35" s="1">
+        <v>8.8556181883839999E-2</v>
+      </c>
+      <c r="D35" s="1">
+        <v>8.9212689874109297E-2</v>
+      </c>
+      <c r="E35" s="1">
+        <v>8.9816294891596704E-2</v>
+      </c>
+      <c r="F35" s="1">
+        <v>9.0388567173138701E-2</v>
+      </c>
+      <c r="G35" s="1">
+        <v>9.0977068456113905E-2</v>
+      </c>
+      <c r="H35" s="1">
+        <v>9.1673872427769407E-2</v>
+      </c>
+      <c r="I35" s="1">
+        <v>9.2652035359771304E-2</v>
+      </c>
+      <c r="J35" s="1">
+        <v>9.4241556626423195E-2</v>
+      </c>
+      <c r="K35" s="1">
+        <v>9.7054520738937097E-2</v>
+      </c>
+      <c r="L35" s="1">
+        <v>0.101174938968539</v>
+      </c>
+      <c r="M35" s="1">
+        <v>7.5703386932235606E-2</v>
+      </c>
+      <c r="N35" s="1">
+        <v>-2.0039018597716601E-2</v>
+      </c>
+      <c r="O35" s="1">
+        <v>-4.8878872783287598E-2</v>
+      </c>
+      <c r="P35" s="1">
+        <v>-5.7490681963816598E-2</v>
+      </c>
+      <c r="Q35" s="1">
+        <v>-6.0690162665262198E-2</v>
+      </c>
+      <c r="R35" s="1">
+        <v>-6.1742913383202397E-2</v>
+      </c>
+      <c r="S35" s="1">
+        <v>-6.1686938324039702E-2</v>
+      </c>
+      <c r="T35" s="1">
+        <v>-6.0942186840339002E-2</v>
+      </c>
+      <c r="U35" s="1">
+        <v>-5.9716454824717803E-2</v>
+      </c>
+      <c r="V35" s="1">
+        <v>-5.8139393575416101E-2</v>
+      </c>
+      <c r="W35" s="1">
+        <v>-5.6312655677613697E-2</v>
+      </c>
+    </row>
+    <row r="36" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="C36" s="1">
+        <v>8.8556181883839999E-2</v>
+      </c>
+      <c r="D36" s="1">
+        <v>8.9212689874109297E-2</v>
+      </c>
+      <c r="E36" s="1">
+        <v>8.9816294891596704E-2</v>
+      </c>
+      <c r="F36" s="1">
+        <v>9.0388567173138701E-2</v>
+      </c>
+      <c r="G36" s="1">
+        <v>9.0977068456113905E-2</v>
+      </c>
+      <c r="H36" s="1">
+        <v>9.1673872427769407E-2</v>
+      </c>
+      <c r="I36" s="1">
+        <v>9.2652035359771304E-2</v>
+      </c>
+      <c r="J36" s="1">
+        <v>9.4241556626423195E-2</v>
+      </c>
+      <c r="K36" s="1">
+        <v>9.7054520738937097E-2</v>
+      </c>
+      <c r="L36" s="1">
+        <v>0.101174938968539</v>
+      </c>
+      <c r="M36" s="1">
+        <v>7.5703386932235606E-2</v>
+      </c>
+      <c r="N36" s="1">
+        <v>-2.0039018597716601E-2</v>
+      </c>
+      <c r="O36" s="1">
+        <v>-4.8878872783287598E-2</v>
+      </c>
+      <c r="P36" s="1">
+        <v>-5.7490681963816598E-2</v>
+      </c>
+      <c r="Q36" s="1">
+        <v>-6.0690162665262198E-2</v>
+      </c>
+      <c r="R36" s="1">
+        <v>-6.1742913383202397E-2</v>
+      </c>
+      <c r="S36" s="1">
+        <v>-6.1686938324039702E-2</v>
+      </c>
+      <c r="T36" s="1">
+        <v>-6.0942186840339002E-2</v>
+      </c>
+      <c r="U36" s="1">
+        <v>-5.9716454824717803E-2</v>
+      </c>
+      <c r="V36" s="1">
+        <v>-5.8139393575416101E-2</v>
+      </c>
+      <c r="W36" s="1">
+        <v>-5.6312655677613697E-2</v>
+      </c>
+    </row>
+    <row r="37" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="C37" s="1">
+        <v>8.8556181883839999E-2</v>
+      </c>
+      <c r="D37" s="1">
+        <v>8.9212689874109297E-2</v>
+      </c>
+      <c r="E37" s="1">
+        <v>8.9816294891596704E-2</v>
+      </c>
+      <c r="F37" s="1">
+        <v>9.0388567173138701E-2</v>
+      </c>
+      <c r="G37" s="1">
+        <v>9.0977068456113905E-2</v>
+      </c>
+      <c r="H37" s="1">
+        <v>9.1673872427769407E-2</v>
+      </c>
+      <c r="I37" s="1">
+        <v>9.2652035359771304E-2</v>
+      </c>
+      <c r="J37" s="1">
+        <v>9.4241556626423195E-2</v>
+      </c>
+      <c r="K37" s="1">
+        <v>9.7054520738937097E-2</v>
+      </c>
+      <c r="L37" s="1">
+        <v>0.101174938968539</v>
+      </c>
+      <c r="M37" s="1">
+        <v>7.5703386932235606E-2</v>
+      </c>
+      <c r="N37" s="1">
+        <v>-2.0039018597716601E-2</v>
+      </c>
+      <c r="O37" s="1">
+        <v>-4.8878872783287598E-2</v>
+      </c>
+      <c r="P37" s="1">
+        <v>-5.7490681963816598E-2</v>
+      </c>
+      <c r="Q37" s="1">
+        <v>-6.0690162665262198E-2</v>
+      </c>
+      <c r="R37" s="1">
+        <v>-6.1742913383202397E-2</v>
+      </c>
+      <c r="S37" s="1">
+        <v>-6.1686938324039702E-2</v>
+      </c>
+      <c r="T37" s="1">
+        <v>-6.0942186840339002E-2</v>
+      </c>
+      <c r="U37" s="1">
+        <v>-5.9716454824717803E-2</v>
+      </c>
+      <c r="V37" s="1">
+        <v>-5.8139393575416101E-2</v>
+      </c>
+      <c r="W37" s="1">
+        <v>-5.6312655677613697E-2</v>
+      </c>
+    </row>
+    <row r="38" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="C38" s="1">
+        <v>8.8556181883839999E-2</v>
+      </c>
+      <c r="D38" s="1">
+        <v>8.9212689874109297E-2</v>
+      </c>
+      <c r="E38" s="1">
+        <v>8.9816294891596704E-2</v>
+      </c>
+      <c r="F38" s="1">
+        <v>9.0388567173138701E-2</v>
+      </c>
+      <c r="G38" s="1">
+        <v>9.0977068456113905E-2</v>
+      </c>
+      <c r="H38" s="1">
+        <v>9.1673872427769407E-2</v>
+      </c>
+      <c r="I38" s="1">
+        <v>9.2652035359771304E-2</v>
+      </c>
+      <c r="J38" s="1">
+        <v>9.4241556626423195E-2</v>
+      </c>
+      <c r="K38" s="1">
+        <v>9.7054520738937097E-2</v>
+      </c>
+      <c r="L38" s="1">
+        <v>0.101174938968539</v>
+      </c>
+      <c r="M38" s="1">
+        <v>7.5703386932235606E-2</v>
+      </c>
+      <c r="N38" s="1">
+        <v>-2.0039018597716601E-2</v>
+      </c>
+      <c r="O38" s="1">
+        <v>-4.8878872783287598E-2</v>
+      </c>
+      <c r="P38" s="1">
+        <v>-5.7490681963816598E-2</v>
+      </c>
+      <c r="Q38" s="1">
+        <v>-6.0690162665262198E-2</v>
+      </c>
+      <c r="R38" s="1">
+        <v>-6.1742913383202397E-2</v>
+      </c>
+      <c r="S38" s="1">
+        <v>-6.1686938324039702E-2</v>
+      </c>
+      <c r="T38" s="1">
+        <v>-6.0942186840339002E-2</v>
+      </c>
+      <c r="U38" s="1">
+        <v>-5.9716454824717803E-2</v>
+      </c>
+      <c r="V38" s="1">
+        <v>-5.8139393575416101E-2</v>
+      </c>
+      <c r="W38" s="1">
+        <v>-5.6312655677613697E-2</v>
+      </c>
+    </row>
+    <row r="39" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="C39" s="1">
+        <v>8.8556181883839999E-2</v>
+      </c>
+      <c r="D39" s="1">
+        <v>8.9212689874109297E-2</v>
+      </c>
+      <c r="E39" s="1">
+        <v>8.9816294891596704E-2</v>
+      </c>
+      <c r="F39" s="1">
+        <v>9.0388567173138701E-2</v>
+      </c>
+      <c r="G39" s="1">
+        <v>9.0977068456113905E-2</v>
+      </c>
+      <c r="H39" s="1">
+        <v>9.1673872427769407E-2</v>
+      </c>
+      <c r="I39" s="1">
+        <v>9.2652035359771304E-2</v>
+      </c>
+      <c r="J39" s="1">
+        <v>9.4241556626423195E-2</v>
+      </c>
+      <c r="K39" s="1">
+        <v>9.7054520738937097E-2</v>
+      </c>
+      <c r="L39" s="1">
+        <v>0.101174938968539</v>
+      </c>
+      <c r="M39" s="1">
+        <v>7.5703386932235606E-2</v>
+      </c>
+      <c r="N39" s="1">
+        <v>-2.0039018597716601E-2</v>
+      </c>
+      <c r="O39" s="1">
+        <v>-4.8878872783287598E-2</v>
+      </c>
+      <c r="P39" s="1">
+        <v>-5.7490681963816598E-2</v>
+      </c>
+      <c r="Q39" s="1">
+        <v>-6.0690162665262198E-2</v>
+      </c>
+      <c r="R39" s="1">
+        <v>-6.1742913383202397E-2</v>
+      </c>
+      <c r="S39" s="1">
+        <v>-6.1686938324039702E-2</v>
+      </c>
+      <c r="T39" s="1">
+        <v>-6.0942186840339002E-2</v>
+      </c>
+      <c r="U39" s="1">
+        <v>-5.9716454824717803E-2</v>
+      </c>
+      <c r="V39" s="1">
+        <v>-5.8139393575416101E-2</v>
+      </c>
+      <c r="W39" s="1">
+        <v>-5.6312655677613697E-2</v>
+      </c>
+    </row>
+    <row r="40" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="C40" s="1">
+        <v>8.8556181883839999E-2</v>
+      </c>
+      <c r="D40" s="1">
+        <v>8.9212689874109297E-2</v>
+      </c>
+      <c r="E40" s="1">
+        <v>8.9816294891596704E-2</v>
+      </c>
+      <c r="F40" s="1">
+        <v>9.0388567173138701E-2</v>
+      </c>
+      <c r="G40" s="1">
+        <v>9.0977068456113905E-2</v>
+      </c>
+      <c r="H40" s="1">
+        <v>9.1673872427769407E-2</v>
+      </c>
+      <c r="I40" s="1">
+        <v>9.2652035359771304E-2</v>
+      </c>
+      <c r="J40" s="1">
+        <v>9.4241556626423195E-2</v>
+      </c>
+      <c r="K40" s="1">
+        <v>9.7054520738937097E-2</v>
+      </c>
+      <c r="L40" s="1">
+        <v>0.101174938968539</v>
+      </c>
+      <c r="M40" s="1">
+        <v>7.5703386932235606E-2</v>
+      </c>
+      <c r="N40" s="1">
+        <v>-2.0039018597716601E-2</v>
+      </c>
+      <c r="O40" s="1">
+        <v>-4.8878872783287598E-2</v>
+      </c>
+      <c r="P40" s="1">
+        <v>-5.7490681963816598E-2</v>
+      </c>
+      <c r="Q40" s="1">
+        <v>-6.0690162665262198E-2</v>
+      </c>
+      <c r="R40" s="1">
+        <v>-6.1742913383202397E-2</v>
+      </c>
+      <c r="S40" s="1">
+        <v>-6.1686938324039702E-2</v>
+      </c>
+      <c r="T40" s="1">
+        <v>-6.0942186840339002E-2</v>
+      </c>
+      <c r="U40" s="1">
+        <v>-5.9716454824717803E-2</v>
+      </c>
+      <c r="V40" s="1">
+        <v>-5.8139393575416101E-2</v>
+      </c>
+      <c r="W40" s="1">
+        <v>-5.6312655677613697E-2</v>
+      </c>
+    </row>
+    <row r="41" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="C41" s="1">
+        <v>8.8556181883839999E-2</v>
+      </c>
+      <c r="D41" s="1">
+        <v>8.9212689874109297E-2</v>
+      </c>
+      <c r="E41" s="1">
+        <v>8.9816294891596704E-2</v>
+      </c>
+      <c r="F41" s="1">
+        <v>9.0388567173138701E-2</v>
+      </c>
+      <c r="G41" s="1">
+        <v>9.0977068456113905E-2</v>
+      </c>
+      <c r="H41" s="1">
+        <v>9.1673872427769407E-2</v>
+      </c>
+      <c r="I41" s="1">
+        <v>9.2652035359771304E-2</v>
+      </c>
+      <c r="J41" s="1">
+        <v>9.4241556626423195E-2</v>
+      </c>
+      <c r="K41" s="1">
+        <v>9.7054520738937097E-2</v>
+      </c>
+      <c r="L41" s="1">
+        <v>0.101174938968539</v>
+      </c>
+      <c r="M41" s="1">
+        <v>7.5703386932235606E-2</v>
+      </c>
+      <c r="N41" s="1">
+        <v>-2.0039018597716601E-2</v>
+      </c>
+      <c r="O41" s="1">
+        <v>-4.8878872783287598E-2</v>
+      </c>
+      <c r="P41" s="1">
+        <v>-5.7490681963816598E-2</v>
+      </c>
+      <c r="Q41" s="1">
+        <v>-6.0690162665262198E-2</v>
+      </c>
+      <c r="R41" s="1">
+        <v>-6.1742913383202397E-2</v>
+      </c>
+      <c r="S41" s="1">
+        <v>-6.1686938324039702E-2</v>
+      </c>
+      <c r="T41" s="1">
+        <v>-6.0942186840339002E-2</v>
+      </c>
+      <c r="U41" s="1">
+        <v>-5.9716454824717803E-2</v>
+      </c>
+      <c r="V41" s="1">
+        <v>-5.8139393575416101E-2</v>
+      </c>
+      <c r="W41" s="1">
+        <v>-5.6312655677613697E-2</v>
+      </c>
+    </row>
+    <row r="42" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="C42" s="1">
+        <v>8.8556181883839999E-2</v>
+      </c>
+      <c r="D42" s="1">
+        <v>8.9212689874109297E-2</v>
+      </c>
+      <c r="E42" s="1">
+        <v>8.9816294891596704E-2</v>
+      </c>
+      <c r="F42" s="1">
+        <v>9.0388567173138701E-2</v>
+      </c>
+      <c r="G42" s="1">
+        <v>9.0977068456113905E-2</v>
+      </c>
+      <c r="H42" s="1">
+        <v>9.1673872427769407E-2</v>
+      </c>
+      <c r="I42" s="1">
+        <v>9.2652035359771304E-2</v>
+      </c>
+      <c r="J42" s="1">
+        <v>9.4241556626423195E-2</v>
+      </c>
+      <c r="K42" s="1">
+        <v>9.7054520738937097E-2</v>
+      </c>
+      <c r="L42" s="1">
+        <v>0.101174938968539</v>
+      </c>
+      <c r="M42" s="1">
+        <v>7.5703386932235606E-2</v>
+      </c>
+      <c r="N42" s="1">
+        <v>-2.0039018597716601E-2</v>
+      </c>
+      <c r="O42" s="1">
+        <v>-4.8878872783287598E-2</v>
+      </c>
+      <c r="P42" s="1">
+        <v>-5.7490681963816598E-2</v>
+      </c>
+      <c r="Q42" s="1">
+        <v>-6.0690162665262198E-2</v>
+      </c>
+      <c r="R42" s="1">
+        <v>-6.1742913383202397E-2</v>
+      </c>
+      <c r="S42" s="1">
+        <v>-6.1686938324039702E-2</v>
+      </c>
+      <c r="T42" s="1">
+        <v>-6.0942186840339002E-2</v>
+      </c>
+      <c r="U42" s="1">
+        <v>-5.9716454824717803E-2</v>
+      </c>
+      <c r="V42" s="1">
+        <v>-5.8139393575416101E-2</v>
+      </c>
+      <c r="W42" s="1">
+        <v>-5.6312655677613697E-2</v>
+      </c>
+    </row>
+    <row r="43" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="C43" s="1">
+        <v>8.8556181883839999E-2</v>
+      </c>
+      <c r="D43" s="1">
+        <v>8.9212689874109297E-2</v>
+      </c>
+      <c r="E43" s="1">
+        <v>8.9816294891596704E-2</v>
+      </c>
+      <c r="F43" s="1">
+        <v>9.0388567173138701E-2</v>
+      </c>
+      <c r="G43" s="1">
+        <v>9.0977068456113905E-2</v>
+      </c>
+      <c r="H43" s="1">
+        <v>9.1673872427769407E-2</v>
+      </c>
+      <c r="I43" s="1">
+        <v>9.2652035359771304E-2</v>
+      </c>
+      <c r="J43" s="1">
+        <v>9.4241556626423195E-2</v>
+      </c>
+      <c r="K43" s="1">
+        <v>9.7054520738937097E-2</v>
+      </c>
+      <c r="L43" s="1">
+        <v>0.101174938968539</v>
+      </c>
+      <c r="M43" s="1">
+        <v>7.5703386932235606E-2</v>
+      </c>
+      <c r="N43" s="1">
+        <v>-2.0039018597716601E-2</v>
+      </c>
+      <c r="O43" s="1">
+        <v>-4.8878872783287598E-2</v>
+      </c>
+      <c r="P43" s="1">
+        <v>-5.7490681963816598E-2</v>
+      </c>
+      <c r="Q43" s="1">
+        <v>-6.0690162665262198E-2</v>
+      </c>
+      <c r="R43" s="1">
+        <v>-6.1742913383202397E-2</v>
+      </c>
+      <c r="S43" s="1">
+        <v>-6.1686938324039702E-2</v>
+      </c>
+      <c r="T43" s="1">
+        <v>-6.0942186840339002E-2</v>
+      </c>
+      <c r="U43" s="1">
+        <v>-5.9716454824717803E-2</v>
+      </c>
+      <c r="V43" s="1">
+        <v>-5.8139393575416101E-2</v>
+      </c>
+      <c r="W43" s="1">
+        <v>-5.6312655677613697E-2</v>
+      </c>
+    </row>
+    <row r="44" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="C44" s="1">
+        <v>8.8556181883839999E-2</v>
+      </c>
+      <c r="D44" s="1">
+        <v>8.9212689874109297E-2</v>
+      </c>
+      <c r="E44" s="1">
+        <v>8.9816294891596704E-2</v>
+      </c>
+      <c r="F44" s="1">
+        <v>9.0388567173138701E-2</v>
+      </c>
+      <c r="G44" s="1">
+        <v>9.0977068456113905E-2</v>
+      </c>
+      <c r="H44" s="1">
+        <v>9.1673872427769407E-2</v>
+      </c>
+      <c r="I44" s="1">
+        <v>9.2652035359771304E-2</v>
+      </c>
+      <c r="J44" s="1">
+        <v>9.4241556626423195E-2</v>
+      </c>
+      <c r="K44" s="1">
+        <v>9.7054520738937097E-2</v>
+      </c>
+      <c r="L44" s="1">
+        <v>0.101174938968539</v>
+      </c>
+      <c r="M44" s="1">
+        <v>7.5703386932235606E-2</v>
+      </c>
+      <c r="N44" s="1">
+        <v>-2.0039018597716601E-2</v>
+      </c>
+      <c r="O44" s="1">
+        <v>-4.8878872783287598E-2</v>
+      </c>
+      <c r="P44" s="1">
+        <v>-5.7490681963816598E-2</v>
+      </c>
+      <c r="Q44" s="1">
+        <v>-6.0690162665262198E-2</v>
+      </c>
+      <c r="R44" s="1">
+        <v>-6.1742913383202397E-2</v>
+      </c>
+      <c r="S44" s="1">
+        <v>-6.1686938324039702E-2</v>
+      </c>
+      <c r="T44" s="1">
+        <v>-6.0942186840339002E-2</v>
+      </c>
+      <c r="U44" s="1">
+        <v>-5.9716454824717803E-2</v>
+      </c>
+      <c r="V44" s="1">
+        <v>-5.8139393575416101E-2</v>
+      </c>
+      <c r="W44" s="1">
+        <v>-5.6312655677613697E-2</v>
+      </c>
+    </row>
+    <row r="45" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="C45" s="1">
+        <v>8.8556181883839999E-2</v>
+      </c>
+      <c r="D45" s="1">
+        <v>8.9212689874109297E-2</v>
+      </c>
+      <c r="E45" s="1">
+        <v>8.9816294891596704E-2</v>
+      </c>
+      <c r="F45" s="1">
+        <v>9.0388567173138701E-2</v>
+      </c>
+      <c r="G45" s="1">
+        <v>9.0977068456113905E-2</v>
+      </c>
+      <c r="H45" s="1">
+        <v>9.1673872427769407E-2</v>
+      </c>
+      <c r="I45" s="1">
+        <v>9.2652035359771304E-2</v>
+      </c>
+      <c r="J45" s="1">
+        <v>9.4241556626423195E-2</v>
+      </c>
+      <c r="K45" s="1">
+        <v>9.7054520738937097E-2</v>
+      </c>
+      <c r="L45" s="1">
+        <v>0.101174938968539</v>
+      </c>
+      <c r="M45" s="1">
+        <v>7.5703386932235606E-2</v>
+      </c>
+      <c r="N45" s="1">
+        <v>-2.0039018597716601E-2</v>
+      </c>
+      <c r="O45" s="1">
+        <v>-4.8878872783287598E-2</v>
+      </c>
+      <c r="P45" s="1">
+        <v>-5.7490681963816598E-2</v>
+      </c>
+      <c r="Q45" s="1">
+        <v>-6.0690162665262198E-2</v>
+      </c>
+      <c r="R45" s="1">
+        <v>-6.1742913383202397E-2</v>
+      </c>
+      <c r="S45" s="1">
+        <v>-6.1686938324039702E-2</v>
+      </c>
+      <c r="T45" s="1">
+        <v>-6.0942186840339002E-2</v>
+      </c>
+      <c r="U45" s="1">
+        <v>-5.9716454824717803E-2</v>
+      </c>
+      <c r="V45" s="1">
+        <v>-5.8139393575416101E-2</v>
+      </c>
+      <c r="W45" s="1">
+        <v>-5.6312655677613697E-2</v>
+      </c>
+    </row>
+    <row r="46" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="C46" s="1">
+        <v>8.8556181883839999E-2</v>
+      </c>
+      <c r="D46" s="1">
+        <v>8.9212689874109297E-2</v>
+      </c>
+      <c r="E46" s="1">
+        <v>8.9816294891596704E-2</v>
+      </c>
+      <c r="F46" s="1">
+        <v>9.0388567173138701E-2</v>
+      </c>
+      <c r="G46" s="1">
+        <v>9.0977068456113905E-2</v>
+      </c>
+      <c r="H46" s="1">
+        <v>9.1673872427769407E-2</v>
+      </c>
+      <c r="I46" s="1">
+        <v>9.2652035359771304E-2</v>
+      </c>
+      <c r="J46" s="1">
+        <v>9.4241556626423195E-2</v>
+      </c>
+      <c r="K46" s="1">
+        <v>9.7054520738937097E-2</v>
+      </c>
+      <c r="L46" s="1">
+        <v>0.101174938968539</v>
+      </c>
+      <c r="M46" s="1">
+        <v>7.5703386932235606E-2</v>
+      </c>
+      <c r="N46" s="1">
+        <v>-2.0039018597716601E-2</v>
+      </c>
+      <c r="O46" s="1">
+        <v>-4.8878872783287598E-2</v>
+      </c>
+      <c r="P46" s="1">
+        <v>-5.7490681963816598E-2</v>
+      </c>
+      <c r="Q46" s="1">
+        <v>-6.0690162665262198E-2</v>
+      </c>
+      <c r="R46" s="1">
+        <v>-6.1742913383202397E-2</v>
+      </c>
+      <c r="S46" s="1">
+        <v>-6.1686938324039702E-2</v>
+      </c>
+      <c r="T46" s="1">
+        <v>-6.0942186840339002E-2</v>
+      </c>
+      <c r="U46" s="1">
+        <v>-5.9716454824717803E-2</v>
+      </c>
+      <c r="V46" s="1">
+        <v>-5.8139393575416101E-2</v>
+      </c>
+      <c r="W46" s="1">
+        <v>-5.6312655677613697E-2</v>
+      </c>
+    </row>
+    <row r="47" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="C47" s="1">
+        <v>8.8556181883839999E-2</v>
+      </c>
+      <c r="D47" s="1">
+        <v>8.9212689874109297E-2</v>
+      </c>
+      <c r="E47" s="1">
+        <v>8.9816294891596704E-2</v>
+      </c>
+      <c r="F47" s="1">
+        <v>9.0388567173138701E-2</v>
+      </c>
+      <c r="G47" s="1">
+        <v>9.0977068456113905E-2</v>
+      </c>
+      <c r="H47" s="1">
+        <v>9.1673872427769407E-2</v>
+      </c>
+      <c r="I47" s="1">
+        <v>9.2652035359771304E-2</v>
+      </c>
+      <c r="J47" s="1">
+        <v>9.4241556626423195E-2</v>
+      </c>
+      <c r="K47" s="1">
+        <v>9.7054520738937097E-2</v>
+      </c>
+      <c r="L47" s="1">
+        <v>0.101174938968539</v>
+      </c>
+      <c r="M47" s="1">
+        <v>7.5703386932235606E-2</v>
+      </c>
+      <c r="N47" s="1">
+        <v>-2.0039018597716601E-2</v>
+      </c>
+      <c r="O47" s="1">
+        <v>-4.8878872783287598E-2</v>
+      </c>
+      <c r="P47" s="1">
+        <v>-5.7490681963816598E-2</v>
+      </c>
+      <c r="Q47" s="1">
+        <v>-6.0690162665262198E-2</v>
+      </c>
+      <c r="R47" s="1">
+        <v>-6.1742913383202397E-2</v>
+      </c>
+      <c r="S47" s="1">
+        <v>-6.1686938324039702E-2</v>
+      </c>
+      <c r="T47" s="1">
+        <v>-6.0942186840339002E-2</v>
+      </c>
+      <c r="U47" s="1">
+        <v>-5.9716454824717803E-2</v>
+      </c>
+      <c r="V47" s="1">
+        <v>-5.8139393575416101E-2</v>
+      </c>
+      <c r="W47" s="1">
+        <v>-5.6312655677613697E-2</v>
+      </c>
+    </row>
+    <row r="48" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="C48" s="1">
+        <v>8.8556181883839999E-2</v>
+      </c>
+      <c r="D48" s="1">
+        <v>8.9212689874109297E-2</v>
+      </c>
+      <c r="E48" s="1">
+        <v>8.9816294891596704E-2</v>
+      </c>
+      <c r="F48" s="1">
+        <v>9.0388567173138701E-2</v>
+      </c>
+      <c r="G48" s="1">
+        <v>9.0977068456113905E-2</v>
+      </c>
+      <c r="H48" s="1">
+        <v>9.1673872427769407E-2</v>
+      </c>
+      <c r="I48" s="1">
+        <v>9.2652035359771304E-2</v>
+      </c>
+      <c r="J48" s="1">
+        <v>9.4241556626423195E-2</v>
+      </c>
+      <c r="K48" s="1">
+        <v>9.7054520738937097E-2</v>
+      </c>
+      <c r="L48" s="1">
+        <v>0.101174938968539</v>
+      </c>
+      <c r="M48" s="1">
+        <v>7.5703386932235606E-2</v>
+      </c>
+      <c r="N48" s="1">
+        <v>-2.0039018597716601E-2</v>
+      </c>
+      <c r="O48" s="1">
+        <v>-4.8878872783287598E-2</v>
+      </c>
+      <c r="P48" s="1">
+        <v>-5.7490681963816598E-2</v>
+      </c>
+      <c r="Q48" s="1">
+        <v>-6.0690162665262198E-2</v>
+      </c>
+      <c r="R48" s="1">
+        <v>-6.1742913383202397E-2</v>
+      </c>
+      <c r="S48" s="1">
+        <v>-6.1686938324039702E-2</v>
+      </c>
+      <c r="T48" s="1">
+        <v>-6.0942186840339002E-2</v>
+      </c>
+      <c r="U48" s="1">
+        <v>-5.9716454824717803E-2</v>
+      </c>
+      <c r="V48" s="1">
+        <v>-5.8139393575416101E-2</v>
+      </c>
+      <c r="W48" s="1">
+        <v>-5.6312655677613697E-2</v>
+      </c>
+    </row>
+    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="C49" s="1">
+        <v>8.8556181883839999E-2</v>
+      </c>
+      <c r="D49" s="1">
+        <v>8.9212689874109297E-2</v>
+      </c>
+      <c r="E49" s="1">
+        <v>8.9816294891596704E-2</v>
+      </c>
+      <c r="F49" s="1">
+        <v>9.0388567173138701E-2</v>
+      </c>
+      <c r="G49" s="1">
+        <v>9.0977068456113905E-2</v>
+      </c>
+      <c r="H49" s="1">
+        <v>9.1673872427769407E-2</v>
+      </c>
+      <c r="I49" s="1">
+        <v>9.2652035359771304E-2</v>
+      </c>
+      <c r="J49" s="1">
+        <v>9.4241556626423195E-2</v>
+      </c>
+      <c r="K49" s="1">
+        <v>9.7054520738937097E-2</v>
+      </c>
+      <c r="L49" s="1">
+        <v>0.101174938968539</v>
+      </c>
+      <c r="M49" s="1">
+        <v>7.5703386932235606E-2</v>
+      </c>
+      <c r="N49" s="1">
+        <v>-2.0039018597716601E-2</v>
+      </c>
+      <c r="O49" s="1">
+        <v>-4.8878872783287598E-2</v>
+      </c>
+      <c r="P49" s="1">
+        <v>-5.7490681963816598E-2</v>
+      </c>
+      <c r="Q49" s="1">
+        <v>-6.0690162665262198E-2</v>
+      </c>
+      <c r="R49" s="1">
+        <v>-6.1742913383202397E-2</v>
+      </c>
+      <c r="S49" s="1">
+        <v>-6.1686938324039702E-2</v>
+      </c>
+      <c r="T49" s="1">
+        <v>-6.0942186840339002E-2</v>
+      </c>
+      <c r="U49" s="1">
+        <v>-5.9716454824717803E-2</v>
+      </c>
+      <c r="V49" s="1">
+        <v>-5.8139393575416101E-2</v>
+      </c>
+      <c r="W49" s="1">
+        <v>-5.6312655677613697E-2</v>
+      </c>
+    </row>
+    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="C50" s="1">
+        <v>8.8556181883839999E-2</v>
+      </c>
+      <c r="D50" s="1">
+        <v>8.9212689874109297E-2</v>
+      </c>
+      <c r="E50" s="1">
+        <v>8.9816294891596704E-2</v>
+      </c>
+      <c r="F50" s="1">
+        <v>9.0388567173138701E-2</v>
+      </c>
+      <c r="G50" s="1">
+        <v>9.0977068456113905E-2</v>
+      </c>
+      <c r="H50" s="1">
+        <v>9.1673872427769407E-2</v>
+      </c>
+      <c r="I50" s="1">
+        <v>9.2652035359771304E-2</v>
+      </c>
+      <c r="J50" s="1">
+        <v>9.4241556626423195E-2</v>
+      </c>
+      <c r="K50" s="1">
+        <v>9.7054520738937097E-2</v>
+      </c>
+      <c r="L50" s="1">
+        <v>0.101174938968539</v>
+      </c>
+      <c r="M50" s="1">
+        <v>7.5703386932235606E-2</v>
+      </c>
+      <c r="N50" s="1">
+        <v>-2.0039018597716601E-2</v>
+      </c>
+      <c r="O50" s="1">
+        <v>-4.8878872783287598E-2</v>
+      </c>
+      <c r="P50" s="1">
+        <v>-5.7490681963816598E-2</v>
+      </c>
+      <c r="Q50" s="1">
+        <v>-6.0690162665262198E-2</v>
+      </c>
+      <c r="R50" s="1">
+        <v>-6.1742913383202397E-2</v>
+      </c>
+      <c r="S50" s="1">
+        <v>-6.1686938324039702E-2</v>
+      </c>
+      <c r="T50" s="1">
+        <v>-6.0942186840339002E-2</v>
+      </c>
+      <c r="U50" s="1">
+        <v>-5.9716454824717803E-2</v>
+      </c>
+      <c r="V50" s="1">
+        <v>-5.8139393575416101E-2</v>
+      </c>
+      <c r="W50" s="1">
+        <v>-5.6312655677613697E-2</v>
       </c>
     </row>
   </sheetData>
